--- a/database/industries/shoyande/shegol/cost/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687A1C6A-0F56-4667-B54A-F971EFE961EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7040AD4-E314-4906-B4F9-4BE5E81986D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1400/09</t>
@@ -712,16 +727,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I176"/>
+  <dimension ref="B1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -730,8 +745,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,8 +762,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,8 +779,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -764,8 +794,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -776,8 +811,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,8 +828,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -798,8 +843,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -820,8 +870,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -830,106 +895,171 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1307554</v>
+      </c>
+      <c r="F10" s="9">
+        <v>849350</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1622303</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1681775</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2172579</v>
+      </c>
+      <c r="J10" s="9">
         <v>1923047</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1483731</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1157822</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1883898</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2677456</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>50989</v>
+      </c>
+      <c r="F11" s="11">
+        <v>18596</v>
+      </c>
+      <c r="G11" s="11">
+        <v>69235</v>
+      </c>
+      <c r="H11" s="11">
+        <v>44962</v>
+      </c>
+      <c r="I11" s="11">
+        <v>68108</v>
+      </c>
+      <c r="J11" s="11">
         <v>69080</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>61171</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>87043</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>97758</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>98570</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>120139</v>
+      </c>
+      <c r="F12" s="9">
+        <v>90455</v>
+      </c>
+      <c r="G12" s="9">
+        <v>115425</v>
+      </c>
+      <c r="H12" s="9">
+        <v>192015</v>
+      </c>
+      <c r="I12" s="9">
+        <v>195031</v>
+      </c>
+      <c r="J12" s="9">
         <v>222280</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>192077</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>162733</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>189564</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>237635</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1478682</v>
+      </c>
+      <c r="F13" s="13">
+        <v>958401</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1806963</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1918752</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2435718</v>
+      </c>
+      <c r="J13" s="13">
         <v>2214407</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1736979</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1407598</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>2171220</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>3013661</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>-220263</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>585391</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -940,164 +1070,284 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1258419</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1543792</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1806963</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1918752</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2435718</v>
+      </c>
+      <c r="J15" s="13">
         <v>2214407</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1736979</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1407598</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2171220</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>3013661</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-5532</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-5297</v>
+      </c>
+      <c r="G16" s="9">
+        <v>15724</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-23865</v>
+      </c>
+      <c r="I16" s="9">
+        <v>10295</v>
+      </c>
+      <c r="J16" s="9">
         <v>-3501</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>15845</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-27427</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>3739</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-4068</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>-8741</v>
+      </c>
+      <c r="F17" s="11">
+        <v>538</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-5663</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-10368</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-1731</v>
+      </c>
+      <c r="J17" s="11">
         <v>-7492</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-2739</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-9851</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-3844</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1244146</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1539033</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1817024</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1884519</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2444282</v>
+      </c>
+      <c r="J18" s="15">
         <v>2203414</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1750085</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1370320</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>2171115</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>3010016</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>308474</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>90180</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>634237</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>82270</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>2778</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-72459</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-429728</v>
+      </c>
+      <c r="H20" s="9">
+        <v>39698</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-90180</v>
+      </c>
+      <c r="J20" s="9">
         <v>-634237</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-343489</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-498691</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>82270</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-569620</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1246924</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1466574</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1695770</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1924217</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2354102</v>
+      </c>
+      <c r="J21" s="13">
         <v>2049387</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>2040833</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>871629</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>2253385</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>3200306</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1116,30 +1366,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1246924</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1466574</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1695770</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1924217</v>
+      </c>
+      <c r="I23" s="13">
+        <v>2354102</v>
+      </c>
+      <c r="J23" s="13">
         <v>2049387</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>2040833</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>871629</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>2253385</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>3200306</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1148,8 +1428,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1158,8 +1443,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1168,10 +1458,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1190,8 +1485,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1200,95 +1510,145 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>5885</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5190</v>
+      </c>
+      <c r="G31" s="9">
+        <v>4550</v>
+      </c>
+      <c r="H31" s="9">
+        <v>5395</v>
+      </c>
+      <c r="I31" s="9">
+        <v>4525</v>
+      </c>
+      <c r="J31" s="9">
         <v>3754</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>5156</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9">
         <v>4959</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>3989</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11">
+      <c r="E32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="11">
         <v>2</v>
-      </c>
-      <c r="F32" s="11">
-        <v>2</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="H32" s="11">
         <v>2</v>
@@ -1296,54 +1656,99 @@
       <c r="I32" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11">
+        <v>2</v>
+      </c>
+      <c r="N32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>5886</v>
+      </c>
+      <c r="F34" s="13">
+        <v>5192</v>
+      </c>
+      <c r="G34" s="13">
+        <v>4552</v>
+      </c>
+      <c r="H34" s="13">
+        <v>5397</v>
+      </c>
+      <c r="I34" s="13">
+        <v>4527</v>
+      </c>
+      <c r="J34" s="13">
         <v>3756</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>5158</v>
       </c>
-      <c r="G34" s="13">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13">
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
         <v>4961</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>3991</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1352,8 +1757,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1362,8 +1772,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1372,10 +1787,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1394,8 +1814,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1404,150 +1839,245 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>26</v>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>-1</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>6104</v>
+      </c>
+      <c r="F42" s="9">
+        <v>6582</v>
+      </c>
+      <c r="G42" s="9">
+        <v>6469</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2712</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3663</v>
+      </c>
+      <c r="J42" s="9">
         <v>5755</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>1811</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>4587</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>78</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>7560</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="E43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="11">
         <v>2</v>
       </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
       <c r="H43" s="11">
         <v>0</v>
       </c>
       <c r="I43" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>2</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>6105</v>
+      </c>
+      <c r="F45" s="13">
+        <v>6581</v>
+      </c>
+      <c r="G45" s="13">
+        <v>6471</v>
+      </c>
+      <c r="H45" s="13">
+        <v>2712</v>
+      </c>
+      <c r="I45" s="13">
+        <v>3663</v>
+      </c>
+      <c r="J45" s="13">
         <v>5755</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>1813</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>4587</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>78</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>7560</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1556,8 +2086,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1566,8 +2101,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1576,10 +2116,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1598,8 +2143,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1608,150 +2168,245 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>26</v>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>6799</v>
+      </c>
+      <c r="F53" s="9">
+        <v>7227</v>
+      </c>
+      <c r="G53" s="9">
+        <v>5624</v>
+      </c>
+      <c r="H53" s="9">
+        <v>3422</v>
+      </c>
+      <c r="I53" s="9">
+        <v>4594</v>
+      </c>
+      <c r="J53" s="9">
         <v>4193</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>1489</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>5106</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>1048</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>8418</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="E54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="11">
         <v>2</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
       <c r="H54" s="11">
         <v>0</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>2</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>6800</v>
+      </c>
+      <c r="F56" s="13">
+        <v>7227</v>
+      </c>
+      <c r="G56" s="13">
+        <v>5626</v>
+      </c>
+      <c r="H56" s="13">
+        <v>3422</v>
+      </c>
+      <c r="I56" s="13">
+        <v>4594</v>
+      </c>
+      <c r="J56" s="13">
         <v>4193</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>1491</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>5106</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>1048</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>8418</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1760,8 +2415,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1770,8 +2430,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1780,10 +2445,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1802,8 +2472,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1812,92 +2497,142 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>26</v>
+      <c r="E62" s="9">
+        <v>2</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>5190</v>
+      </c>
+      <c r="F64" s="9">
+        <v>4550</v>
+      </c>
+      <c r="G64" s="9">
+        <v>5395</v>
+      </c>
+      <c r="H64" s="9">
+        <v>4525</v>
+      </c>
+      <c r="I64" s="9">
+        <v>3754</v>
+      </c>
+      <c r="J64" s="9">
         <v>5156</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>5478</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>4959</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>3989</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>3131</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
-        <v>2</v>
-      </c>
-      <c r="F65" s="11">
-        <v>2</v>
+      <c r="E65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G65" s="11">
         <v>2</v>
@@ -1908,54 +2643,99 @@
       <c r="I65" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="11">
+        <v>2</v>
+      </c>
+      <c r="K65" s="11">
+        <v>2</v>
+      </c>
+      <c r="L65" s="11">
+        <v>2</v>
+      </c>
+      <c r="M65" s="11">
+        <v>2</v>
+      </c>
+      <c r="N65" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>5192</v>
+      </c>
+      <c r="F67" s="13">
+        <v>4551</v>
+      </c>
+      <c r="G67" s="13">
+        <v>5397</v>
+      </c>
+      <c r="H67" s="13">
+        <v>4527</v>
+      </c>
+      <c r="I67" s="13">
+        <v>3756</v>
+      </c>
+      <c r="J67" s="13">
         <v>5158</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>5480</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>4961</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>3991</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>3133</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1964,8 +2744,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1974,8 +2759,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1984,10 +2774,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2006,8 +2801,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2016,150 +2826,245 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>26</v>
+      <c r="E73" s="9">
+        <v>32156</v>
+      </c>
+      <c r="F73" s="9">
+        <v>359964</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>994055</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1097820</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1576299</v>
+      </c>
+      <c r="H75" s="9">
+        <v>1878993</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1970346</v>
+      </c>
+      <c r="J75" s="9">
         <v>1977831</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>2502761</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="9">
+      <c r="L75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="9">
         <v>2649790</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>2455595</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
+      <c r="E76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="11">
+        <v>389067</v>
+      </c>
+      <c r="H76" s="11">
+        <v>441915</v>
+      </c>
+      <c r="I76" s="11">
+        <v>422633</v>
+      </c>
+      <c r="J76" s="11">
         <v>675649</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>599088</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="L76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="11">
         <v>1067135</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>1051001</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>1026211</v>
+      </c>
+      <c r="F78" s="13">
+        <v>1457784</v>
+      </c>
+      <c r="G78" s="13">
+        <v>1965366</v>
+      </c>
+      <c r="H78" s="13">
+        <v>2320908</v>
+      </c>
+      <c r="I78" s="13">
+        <v>2392979</v>
+      </c>
+      <c r="J78" s="13">
         <v>2653480</v>
       </c>
-      <c r="F78" s="13">
+      <c r="K78" s="13">
         <v>3101849</v>
       </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="H78" s="13">
+      <c r="L78" s="13">
+        <v>0</v>
+      </c>
+      <c r="M78" s="13">
         <v>3716925</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>3506596</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2168,8 +3073,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2178,8 +3088,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2188,10 +3103,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2210,8 +3130,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2220,150 +3155,245 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>26</v>
+      <c r="E84" s="9">
+        <v>1164058</v>
+      </c>
+      <c r="F84" s="9">
+        <v>-16528</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>1043028</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1314578</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1552327</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1513773</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1440841</v>
+      </c>
+      <c r="J86" s="9">
         <v>2130481</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>5247349</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>-3126892</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>1344031</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>1583979</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11">
+      <c r="E87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="11">
+        <v>425518</v>
+      </c>
+      <c r="H87" s="11">
+        <v>298955</v>
+      </c>
+      <c r="I87" s="11">
+        <v>992239</v>
+      </c>
+      <c r="J87" s="11">
         <v>248464</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>979127</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>157045</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>329538</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>609751</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>2207086</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1298050</v>
+      </c>
+      <c r="G89" s="13">
+        <v>1977845</v>
+      </c>
+      <c r="H89" s="13">
+        <v>1812728</v>
+      </c>
+      <c r="I89" s="13">
+        <v>2433080</v>
+      </c>
+      <c r="J89" s="13">
         <v>2378945</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>6226476</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>-2969847</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>1673569</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>2193730</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2372,8 +3402,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2382,8 +3417,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2392,10 +3432,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2414,8 +3459,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2424,150 +3484,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>26</v>
+      <c r="E95" s="9">
+        <v>1045613</v>
+      </c>
+      <c r="F95" s="9">
+        <v>-46544</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>939263</v>
+      </c>
+      <c r="F97" s="9">
+        <v>895894</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1249633</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1362625</v>
+      </c>
+      <c r="I97" s="9">
+        <v>1433356</v>
+      </c>
+      <c r="J97" s="9">
         <v>1651178</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>1126440</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>846988</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>1538226</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>1923349</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11">
+      <c r="E98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="11">
+        <v>372670</v>
+      </c>
+      <c r="H98" s="11">
+        <v>319150</v>
+      </c>
+      <c r="I98" s="11">
+        <v>739223</v>
+      </c>
+      <c r="J98" s="11">
         <v>271869</v>
       </c>
-      <c r="F98" s="11">
+      <c r="K98" s="11">
         <v>357291</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>310834</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>345672</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>754107</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H99" s="9">
+        <v>0</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>1984876</v>
+      </c>
+      <c r="F100" s="13">
+        <v>849350</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1622303</v>
+      </c>
+      <c r="H100" s="13">
+        <v>1681775</v>
+      </c>
+      <c r="I100" s="13">
+        <v>2172579</v>
+      </c>
+      <c r="J100" s="13">
         <v>1923047</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>1483731</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>1157822</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>1883898</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>2677456</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2576,8 +3731,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2586,8 +3746,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2596,10 +3761,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2618,8 +3788,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2628,150 +3813,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>26</v>
+      <c r="E106" s="9">
+        <v>359964</v>
+      </c>
+      <c r="F106" s="9">
+        <v>389980</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>1097820</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1516504</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1878993</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1970346</v>
+      </c>
+      <c r="I108" s="9">
+        <v>1977831</v>
+      </c>
+      <c r="J108" s="9">
         <v>2502761</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>6623670</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>2649790</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>2455595</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>2116225</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11">
+      <c r="E109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="11">
+        <v>441915</v>
+      </c>
+      <c r="H109" s="11">
+        <v>422633</v>
+      </c>
+      <c r="I109" s="11">
+        <v>675649</v>
+      </c>
+      <c r="J109" s="11">
         <v>599088</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>1220924</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>1067135</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>1051001</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>906645</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H110" s="9">
+        <v>0</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>1457784</v>
+      </c>
+      <c r="F111" s="13">
+        <v>1906484</v>
+      </c>
+      <c r="G111" s="13">
+        <v>2320908</v>
+      </c>
+      <c r="H111" s="13">
+        <v>2392979</v>
+      </c>
+      <c r="I111" s="13">
+        <v>2653480</v>
+      </c>
+      <c r="J111" s="13">
         <v>3101849</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>7844594</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>3716925</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>3506596</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>3022870</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2780,8 +4060,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2790,8 +4075,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2800,10 +4090,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2822,8 +4117,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2832,80 +4142,130 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>26</v>
+      <c r="E117" s="9">
+        <v>32156000000</v>
+      </c>
+      <c r="F117" s="9">
+        <v>179982000000</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>168913339</v>
+      </c>
+      <c r="F118" s="11">
+        <v>211526012</v>
+      </c>
+      <c r="G118" s="11">
+        <v>346439341</v>
+      </c>
+      <c r="H118" s="11">
+        <v>348284152</v>
+      </c>
+      <c r="I118" s="11">
+        <v>435435580</v>
+      </c>
+      <c r="J118" s="11">
         <v>526859616</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>485407486</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>1209140197</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>534339585</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>615591627</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9">
+      <c r="E119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="9">
+        <v>194533500000</v>
+      </c>
+      <c r="H119" s="9">
+        <v>220957500000</v>
+      </c>
+      <c r="I119" s="9">
+        <v>211316500000</v>
+      </c>
+      <c r="J119" s="9">
         <v>337824500000</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>299544000000</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>610462000000</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>533567500000</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>525500500000</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2914,8 +4274,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2924,8 +4289,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2934,10 +4304,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2956,8 +4331,23 @@
       <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2966,80 +4356,130 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>26</v>
+      <c r="E125" s="9">
+        <v>1164058000000</v>
+      </c>
+      <c r="F125" s="9">
+        <v>16528000000</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N125" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>170876147</v>
+      </c>
+      <c r="F126" s="11">
+        <v>199723184</v>
+      </c>
+      <c r="G126" s="11">
+        <v>239963982</v>
+      </c>
+      <c r="H126" s="11">
+        <v>558175885</v>
+      </c>
+      <c r="I126" s="11">
+        <v>393349986</v>
+      </c>
+      <c r="J126" s="11">
         <v>370196525</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>2897487024</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>-681685633</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>17231166667</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>209521032</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="9">
+        <v>31</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="9">
+        <v>212759000000</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9">
         <v>489563500000</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3048,8 +4488,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3058,8 +4503,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3068,10 +4518,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3090,8 +4545,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3100,80 +4570,130 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>26</v>
+      <c r="E133" s="9">
+        <v>1045613000000</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>138147228</v>
+      </c>
+      <c r="F134" s="11">
+        <v>123964854</v>
+      </c>
+      <c r="G134" s="11">
+        <v>222196479</v>
+      </c>
+      <c r="H134" s="11">
+        <v>398195500</v>
+      </c>
+      <c r="I134" s="11">
+        <v>312006095</v>
+      </c>
+      <c r="J134" s="11">
         <v>393793942</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>756507723</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>165880924</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>1467772901</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>228480518</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="9">
+        <v>31</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="9">
+        <v>186335000000</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="9">
         <v>178645500000</v>
       </c>
-      <c r="G135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3182,8 +4702,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3192,8 +4717,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3202,10 +4732,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3224,8 +4759,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3234,80 +4784,130 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C142" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="11">
+        <v>435435580</v>
+      </c>
+      <c r="I142" s="11">
+        <v>526859616</v>
+      </c>
+      <c r="J142" s="11">
+        <v>485407486</v>
+      </c>
+      <c r="K142" s="11">
+        <v>1209140197</v>
+      </c>
+      <c r="L142" s="11">
+        <v>534339585</v>
+      </c>
+      <c r="M142" s="11">
+        <v>615591627</v>
+      </c>
+      <c r="N142" s="11">
+        <v>675894283</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11">
-        <v>485407486</v>
-      </c>
-      <c r="F142" s="11">
-        <v>1209140197</v>
-      </c>
-      <c r="G142" s="11">
-        <v>534339585</v>
-      </c>
-      <c r="H142" s="11">
-        <v>615591627</v>
-      </c>
-      <c r="I142" s="11">
-        <v>675894283</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B143" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="9">
+      <c r="E143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="9">
+        <v>211316500000</v>
+      </c>
+      <c r="I143" s="9">
+        <v>337824500000</v>
+      </c>
+      <c r="J143" s="9">
         <v>299544000000</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>610462000000</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>533567500000</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>525500500000</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>453322500000</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3316,8 +4916,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3326,8 +4931,13 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3336,10 +4946,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3358,8 +4973,23 @@
       <c r="I147" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3368,32 +4998,52 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
+        <v>-27010</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1611</v>
+      </c>
+      <c r="G149" s="9">
+        <v>4743</v>
+      </c>
+      <c r="H149" s="9">
+        <v>1282</v>
+      </c>
+      <c r="I149" s="9">
+        <v>4993</v>
+      </c>
+      <c r="J149" s="9">
         <v>2313</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>4570</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>3001</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>4496</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>1066</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -3412,10 +5062,25 @@
       <c r="I150" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="11">
+        <v>0</v>
+      </c>
+      <c r="K150" s="11">
+        <v>0</v>
+      </c>
+      <c r="L150" s="11">
+        <v>0</v>
+      </c>
+      <c r="M150" s="11">
+        <v>0</v>
+      </c>
+      <c r="N150" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -3434,10 +5099,25 @@
       <c r="I151" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="9">
+        <v>0</v>
+      </c>
+      <c r="K151" s="9">
+        <v>0</v>
+      </c>
+      <c r="L151" s="9">
+        <v>0</v>
+      </c>
+      <c r="M151" s="9">
+        <v>0</v>
+      </c>
+      <c r="N151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -3456,98 +5136,173 @@
       <c r="I152" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="11">
+        <v>0</v>
+      </c>
+      <c r="K152" s="11">
+        <v>0</v>
+      </c>
+      <c r="L152" s="11">
+        <v>0</v>
+      </c>
+      <c r="M152" s="11">
+        <v>0</v>
+      </c>
+      <c r="N152" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
+        <v>1411</v>
+      </c>
+      <c r="F153" s="9">
+        <v>8924</v>
+      </c>
+      <c r="G153" s="9">
+        <v>11450</v>
+      </c>
+      <c r="H153" s="9">
+        <v>3982</v>
+      </c>
+      <c r="I153" s="9">
+        <v>11254</v>
+      </c>
+      <c r="J153" s="9">
         <v>10516</v>
       </c>
-      <c r="F153" s="9">
+      <c r="K153" s="9">
         <v>8234</v>
       </c>
-      <c r="G153" s="9">
+      <c r="L153" s="9">
         <v>1715</v>
       </c>
-      <c r="H153" s="9">
+      <c r="M153" s="9">
         <v>9304</v>
       </c>
-      <c r="I153" s="9">
+      <c r="N153" s="9">
         <v>7294</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
+        <v>2869</v>
+      </c>
+      <c r="F154" s="11">
+        <v>1044</v>
+      </c>
+      <c r="G154" s="11">
+        <v>2008</v>
+      </c>
+      <c r="H154" s="11">
+        <v>4265</v>
+      </c>
+      <c r="I154" s="11">
+        <v>-1209</v>
+      </c>
+      <c r="J154" s="11">
         <v>4617</v>
       </c>
-      <c r="F154" s="11">
+      <c r="K154" s="11">
         <v>7217</v>
       </c>
-      <c r="G154" s="11">
+      <c r="L154" s="11">
         <v>629</v>
       </c>
-      <c r="H154" s="11">
+      <c r="M154" s="11">
         <v>2071</v>
       </c>
-      <c r="I154" s="11">
+      <c r="N154" s="11">
         <v>4571</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>9176</v>
+      </c>
+      <c r="F155" s="9">
+        <v>12601</v>
+      </c>
+      <c r="G155" s="9">
+        <v>14207</v>
+      </c>
+      <c r="H155" s="9">
+        <v>6758</v>
+      </c>
+      <c r="I155" s="9">
+        <v>14706</v>
+      </c>
+      <c r="J155" s="9">
         <v>12041</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>19072</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>7988</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>16587</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>28031</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
+        <v>56555</v>
+      </c>
+      <c r="F156" s="11">
+        <v>73027</v>
+      </c>
+      <c r="G156" s="11">
+        <v>69235</v>
+      </c>
+      <c r="H156" s="11">
+        <v>112478</v>
+      </c>
+      <c r="I156" s="11">
+        <v>109700</v>
+      </c>
+      <c r="J156" s="11">
         <v>126697</v>
       </c>
-      <c r="F156" s="11">
+      <c r="K156" s="11">
         <v>105920</v>
       </c>
-      <c r="G156" s="11">
+      <c r="L156" s="11">
         <v>101523</v>
       </c>
-      <c r="H156" s="11">
+      <c r="M156" s="11">
         <v>122718</v>
       </c>
-      <c r="I156" s="11">
+      <c r="N156" s="11">
         <v>128475</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -3566,52 +5321,97 @@
       <c r="I157" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="9">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+      <c r="L157" s="9">
+        <v>0</v>
+      </c>
+      <c r="M157" s="9">
+        <v>0</v>
+      </c>
+      <c r="N157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
+        <v>77138</v>
+      </c>
+      <c r="F158" s="11">
+        <v>-6752</v>
+      </c>
+      <c r="G158" s="11">
+        <v>13782</v>
+      </c>
+      <c r="H158" s="11">
+        <v>63250</v>
+      </c>
+      <c r="I158" s="11">
+        <v>55587</v>
+      </c>
+      <c r="J158" s="11">
         <v>66096</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>47064</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>47877</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>34388</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>68198</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15">
+        <v>120139</v>
+      </c>
+      <c r="F159" s="15">
+        <v>90455</v>
+      </c>
+      <c r="G159" s="15">
+        <v>115425</v>
+      </c>
+      <c r="H159" s="15">
+        <v>192015</v>
+      </c>
+      <c r="I159" s="15">
+        <v>195031</v>
+      </c>
+      <c r="J159" s="15">
         <v>222280</v>
       </c>
-      <c r="F159" s="15">
+      <c r="K159" s="15">
         <v>192077</v>
       </c>
-      <c r="G159" s="15">
+      <c r="L159" s="15">
         <v>162733</v>
       </c>
-      <c r="H159" s="15">
+      <c r="M159" s="15">
         <v>189564</v>
       </c>
-      <c r="I159" s="15">
+      <c r="N159" s="15">
         <v>237635</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3620,8 +5420,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3630,8 +5435,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3640,10 +5450,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3652,8 +5467,13 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3662,13 +5482,18 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -3676,98 +5501,103 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C174" s="11">
         <v>0</v>
@@ -3776,23 +5606,23 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>

--- a/database/industries/shoyande/shegol/cost/quarterly.xlsx
+++ b/database/industries/shoyande/shegol/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7040AD4-E314-4906-B4F9-4BE5E81986D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A4B981-A8E6-41F8-AB84-6B9971BF8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -731,12 +731,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -800,7 +800,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -901,165 +901,165 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1307554</v>
+        <v>849350</v>
       </c>
       <c r="F10" s="9">
-        <v>849350</v>
+        <v>1622303</v>
       </c>
       <c r="G10" s="9">
-        <v>1622303</v>
+        <v>1681775</v>
       </c>
       <c r="H10" s="9">
-        <v>1681775</v>
+        <v>2172579</v>
       </c>
       <c r="I10" s="9">
-        <v>2172579</v>
+        <v>1923047</v>
       </c>
       <c r="J10" s="9">
-        <v>1923047</v>
+        <v>1483731</v>
       </c>
       <c r="K10" s="9">
-        <v>1483731</v>
+        <v>1157822</v>
       </c>
       <c r="L10" s="9">
-        <v>1157822</v>
+        <v>1883898</v>
       </c>
       <c r="M10" s="9">
-        <v>1883898</v>
+        <v>2677456</v>
       </c>
       <c r="N10" s="9">
-        <v>2677456</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3444450</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>50989</v>
+        <v>18596</v>
       </c>
       <c r="F11" s="11">
-        <v>18596</v>
+        <v>69235</v>
       </c>
       <c r="G11" s="11">
-        <v>69235</v>
+        <v>44962</v>
       </c>
       <c r="H11" s="11">
-        <v>44962</v>
+        <v>68108</v>
       </c>
       <c r="I11" s="11">
-        <v>68108</v>
+        <v>69080</v>
       </c>
       <c r="J11" s="11">
-        <v>69080</v>
+        <v>61171</v>
       </c>
       <c r="K11" s="11">
-        <v>61171</v>
+        <v>87043</v>
       </c>
       <c r="L11" s="11">
-        <v>87043</v>
+        <v>97758</v>
       </c>
       <c r="M11" s="11">
-        <v>97758</v>
+        <v>98570</v>
       </c>
       <c r="N11" s="11">
-        <v>98570</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>120139</v>
+        <v>90455</v>
       </c>
       <c r="F12" s="9">
-        <v>90455</v>
+        <v>115425</v>
       </c>
       <c r="G12" s="9">
-        <v>115425</v>
+        <v>192015</v>
       </c>
       <c r="H12" s="9">
-        <v>192015</v>
+        <v>195031</v>
       </c>
       <c r="I12" s="9">
-        <v>195031</v>
+        <v>222280</v>
       </c>
       <c r="J12" s="9">
-        <v>222280</v>
+        <v>192077</v>
       </c>
       <c r="K12" s="9">
-        <v>192077</v>
+        <v>162733</v>
       </c>
       <c r="L12" s="9">
-        <v>162733</v>
+        <v>189564</v>
       </c>
       <c r="M12" s="9">
-        <v>189564</v>
+        <v>237635</v>
       </c>
       <c r="N12" s="9">
-        <v>237635</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>269603</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1478682</v>
+        <v>958401</v>
       </c>
       <c r="F13" s="13">
-        <v>958401</v>
+        <v>1806963</v>
       </c>
       <c r="G13" s="13">
-        <v>1806963</v>
+        <v>1918752</v>
       </c>
       <c r="H13" s="13">
-        <v>1918752</v>
+        <v>2435718</v>
       </c>
       <c r="I13" s="13">
-        <v>2435718</v>
+        <v>2214407</v>
       </c>
       <c r="J13" s="13">
-        <v>2214407</v>
+        <v>1736979</v>
       </c>
       <c r="K13" s="13">
-        <v>1736979</v>
+        <v>1407598</v>
       </c>
       <c r="L13" s="13">
-        <v>1407598</v>
+        <v>2171220</v>
       </c>
       <c r="M13" s="13">
-        <v>2171220</v>
+        <v>3013661</v>
       </c>
       <c r="N13" s="13">
-        <v>3013661</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3819212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-220263</v>
+        <v>585391</v>
       </c>
       <c r="F14" s="9">
-        <v>585391</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -1086,266 +1086,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1258419</v>
+        <v>1543792</v>
       </c>
       <c r="F15" s="13">
-        <v>1543792</v>
+        <v>1806963</v>
       </c>
       <c r="G15" s="13">
-        <v>1806963</v>
+        <v>1918752</v>
       </c>
       <c r="H15" s="13">
-        <v>1918752</v>
+        <v>2435718</v>
       </c>
       <c r="I15" s="13">
-        <v>2435718</v>
+        <v>2214407</v>
       </c>
       <c r="J15" s="13">
-        <v>2214407</v>
+        <v>1736979</v>
       </c>
       <c r="K15" s="13">
-        <v>1736979</v>
+        <v>1407598</v>
       </c>
       <c r="L15" s="13">
-        <v>1407598</v>
+        <v>2171220</v>
       </c>
       <c r="M15" s="13">
-        <v>2171220</v>
+        <v>3013661</v>
       </c>
       <c r="N15" s="13">
-        <v>3013661</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3819212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-5532</v>
+        <v>-5297</v>
       </c>
       <c r="F16" s="9">
-        <v>-5297</v>
+        <v>15724</v>
       </c>
       <c r="G16" s="9">
-        <v>15724</v>
+        <v>-23865</v>
       </c>
       <c r="H16" s="9">
-        <v>-23865</v>
+        <v>10295</v>
       </c>
       <c r="I16" s="9">
-        <v>10295</v>
+        <v>-3501</v>
       </c>
       <c r="J16" s="9">
-        <v>-3501</v>
+        <v>15845</v>
       </c>
       <c r="K16" s="9">
-        <v>15845</v>
+        <v>-27427</v>
       </c>
       <c r="L16" s="9">
-        <v>-27427</v>
+        <v>3739</v>
       </c>
       <c r="M16" s="9">
-        <v>3739</v>
+        <v>-4068</v>
       </c>
       <c r="N16" s="9">
-        <v>-4068</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35314</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-8741</v>
+        <v>538</v>
       </c>
       <c r="F17" s="11">
-        <v>538</v>
+        <v>-5663</v>
       </c>
       <c r="G17" s="11">
-        <v>-5663</v>
+        <v>-10368</v>
       </c>
       <c r="H17" s="11">
-        <v>-10368</v>
+        <v>-1731</v>
       </c>
       <c r="I17" s="11">
-        <v>-1731</v>
+        <v>-7492</v>
       </c>
       <c r="J17" s="11">
-        <v>-7492</v>
+        <v>-2739</v>
       </c>
       <c r="K17" s="11">
-        <v>-2739</v>
+        <v>-9851</v>
       </c>
       <c r="L17" s="11">
-        <v>-9851</v>
+        <v>-3844</v>
       </c>
       <c r="M17" s="11">
-        <v>-3844</v>
+        <v>423</v>
       </c>
       <c r="N17" s="11">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-20908</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1244146</v>
+        <v>1539033</v>
       </c>
       <c r="F18" s="15">
-        <v>1539033</v>
+        <v>1817024</v>
       </c>
       <c r="G18" s="15">
-        <v>1817024</v>
+        <v>1884519</v>
       </c>
       <c r="H18" s="15">
-        <v>1884519</v>
+        <v>2444282</v>
       </c>
       <c r="I18" s="15">
-        <v>2444282</v>
+        <v>2203414</v>
       </c>
       <c r="J18" s="15">
-        <v>2203414</v>
+        <v>1750085</v>
       </c>
       <c r="K18" s="15">
-        <v>1750085</v>
+        <v>1370320</v>
       </c>
       <c r="L18" s="15">
-        <v>1370320</v>
+        <v>2171115</v>
       </c>
       <c r="M18" s="15">
-        <v>2171115</v>
+        <v>3010016</v>
       </c>
       <c r="N18" s="15">
-        <v>3010016</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3833618</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>236015</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>308474</v>
       </c>
       <c r="G19" s="11">
-        <v>308474</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>480210</v>
       </c>
       <c r="J19" s="11">
-        <v>90180</v>
+        <v>634237</v>
       </c>
       <c r="K19" s="11">
-        <v>634237</v>
+        <v>343489</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>842180</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>759910</v>
       </c>
       <c r="N19" s="11">
-        <v>82270</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>569620</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>2778</v>
+        <v>-308474</v>
       </c>
       <c r="F20" s="9">
-        <v>-72459</v>
+        <v>-429728</v>
       </c>
       <c r="G20" s="9">
-        <v>-429728</v>
+        <v>39698</v>
       </c>
       <c r="H20" s="9">
-        <v>39698</v>
+        <v>-90180</v>
       </c>
       <c r="I20" s="9">
-        <v>-90180</v>
+        <v>-634237</v>
       </c>
       <c r="J20" s="9">
-        <v>-634237</v>
+        <v>-343489</v>
       </c>
       <c r="K20" s="9">
-        <v>-343489</v>
+        <v>-842180</v>
       </c>
       <c r="L20" s="9">
-        <v>-498691</v>
+        <v>-759910</v>
       </c>
       <c r="M20" s="9">
-        <v>82270</v>
+        <v>-569620</v>
       </c>
       <c r="N20" s="9">
-        <v>-569620</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-670824</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1246924</v>
+        <v>1466574</v>
       </c>
       <c r="F21" s="13">
-        <v>1466574</v>
+        <v>1695770</v>
       </c>
       <c r="G21" s="13">
-        <v>1695770</v>
+        <v>1924217</v>
       </c>
       <c r="H21" s="13">
-        <v>1924217</v>
+        <v>2354102</v>
       </c>
       <c r="I21" s="13">
-        <v>2354102</v>
+        <v>2049387</v>
       </c>
       <c r="J21" s="13">
-        <v>2049387</v>
+        <v>2040833</v>
       </c>
       <c r="K21" s="13">
-        <v>2040833</v>
+        <v>871629</v>
       </c>
       <c r="L21" s="13">
-        <v>871629</v>
+        <v>2253385</v>
       </c>
       <c r="M21" s="13">
-        <v>2253385</v>
+        <v>3200306</v>
       </c>
       <c r="N21" s="13">
-        <v>3200306</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3732414</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1382,44 +1382,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1246924</v>
+        <v>1466574</v>
       </c>
       <c r="F23" s="13">
-        <v>1466574</v>
+        <v>1695770</v>
       </c>
       <c r="G23" s="13">
-        <v>1695770</v>
+        <v>1924217</v>
       </c>
       <c r="H23" s="13">
-        <v>1924217</v>
+        <v>2354102</v>
       </c>
       <c r="I23" s="13">
-        <v>2354102</v>
+        <v>2049387</v>
       </c>
       <c r="J23" s="13">
-        <v>2049387</v>
+        <v>2040833</v>
       </c>
       <c r="K23" s="13">
-        <v>2040833</v>
+        <v>871629</v>
       </c>
       <c r="L23" s="13">
-        <v>871629</v>
+        <v>2253385</v>
       </c>
       <c r="M23" s="13">
-        <v>2253385</v>
+        <v>3200306</v>
       </c>
       <c r="N23" s="13">
-        <v>3200306</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3732414</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1434,7 +1434,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1525,11 +1525,11 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9">
         <v>2</v>
       </c>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G29" s="9" t="s">
         <v>31</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1603,37 +1603,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>5885</v>
+        <v>5190</v>
       </c>
       <c r="F31" s="9">
-        <v>5190</v>
+        <v>4550</v>
       </c>
       <c r="G31" s="9">
-        <v>4550</v>
+        <v>5395</v>
       </c>
       <c r="H31" s="9">
-        <v>5395</v>
+        <v>4525</v>
       </c>
       <c r="I31" s="9">
-        <v>4525</v>
+        <v>3754</v>
       </c>
       <c r="J31" s="9">
-        <v>3754</v>
-      </c>
-      <c r="K31" s="9">
         <v>5156</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>31</v>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
+        <v>4959</v>
       </c>
       <c r="M31" s="9">
-        <v>4959</v>
+        <v>3989</v>
       </c>
       <c r="N31" s="9">
-        <v>3989</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1644,8 +1644,8 @@
       <c r="E32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>31</v>
+      <c r="F32" s="11">
+        <v>2</v>
       </c>
       <c r="G32" s="11">
         <v>2</v>
@@ -1659,11 +1659,11 @@
       <c r="J32" s="11">
         <v>2</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11">
         <v>2</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="M32" s="11">
         <v>2</v>
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1711,44 +1711,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>5886</v>
+        <v>5192</v>
       </c>
       <c r="F34" s="13">
-        <v>5192</v>
+        <v>4552</v>
       </c>
       <c r="G34" s="13">
-        <v>4552</v>
+        <v>5397</v>
       </c>
       <c r="H34" s="13">
-        <v>5397</v>
+        <v>4527</v>
       </c>
       <c r="I34" s="13">
-        <v>4527</v>
+        <v>3756</v>
       </c>
       <c r="J34" s="13">
-        <v>3756</v>
+        <v>5158</v>
       </c>
       <c r="K34" s="13">
-        <v>5158</v>
+        <v>0</v>
       </c>
       <c r="L34" s="13">
-        <v>0</v>
+        <v>4961</v>
       </c>
       <c r="M34" s="13">
-        <v>4961</v>
+        <v>3991</v>
       </c>
       <c r="N34" s="13">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1763,7 +1763,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1778,7 +1778,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1793,7 +1793,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1845,7 +1845,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1854,11 +1854,11 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9">
         <v>-1</v>
       </c>
+      <c r="F40" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G40" s="9" t="s">
         <v>31</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1898,11 +1898,11 @@
       <c r="F41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>31</v>
@@ -1923,7 +1923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1932,37 +1932,37 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>6104</v>
+        <v>6582</v>
       </c>
       <c r="F42" s="9">
-        <v>6582</v>
+        <v>6469</v>
       </c>
       <c r="G42" s="9">
-        <v>6469</v>
+        <v>2712</v>
       </c>
       <c r="H42" s="9">
-        <v>2712</v>
+        <v>3663</v>
       </c>
       <c r="I42" s="9">
-        <v>3663</v>
+        <v>5755</v>
       </c>
       <c r="J42" s="9">
-        <v>5755</v>
+        <v>1811</v>
       </c>
       <c r="K42" s="9">
-        <v>1811</v>
+        <v>4587</v>
       </c>
       <c r="L42" s="9">
-        <v>4587</v>
+        <v>78</v>
       </c>
       <c r="M42" s="9">
-        <v>78</v>
+        <v>7560</v>
       </c>
       <c r="N42" s="9">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
@@ -1973,35 +1973,35 @@
       <c r="E43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>31</v>
+      <c r="F43" s="11">
+        <v>2</v>
       </c>
       <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
         <v>2</v>
       </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11">
-        <v>0</v>
-      </c>
       <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
         <v>2</v>
       </c>
-      <c r="L43" s="11">
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -2015,11 +2015,11 @@
       <c r="F44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>31</v>
@@ -2040,44 +2040,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>6105</v>
+        <v>6581</v>
       </c>
       <c r="F45" s="13">
-        <v>6581</v>
+        <v>6471</v>
       </c>
       <c r="G45" s="13">
-        <v>6471</v>
+        <v>2712</v>
       </c>
       <c r="H45" s="13">
-        <v>2712</v>
+        <v>3663</v>
       </c>
       <c r="I45" s="13">
-        <v>3663</v>
+        <v>5755</v>
       </c>
       <c r="J45" s="13">
-        <v>5755</v>
+        <v>1813</v>
       </c>
       <c r="K45" s="13">
-        <v>1813</v>
+        <v>4587</v>
       </c>
       <c r="L45" s="13">
-        <v>4587</v>
+        <v>78</v>
       </c>
       <c r="M45" s="13">
-        <v>78</v>
+        <v>7560</v>
       </c>
       <c r="N45" s="13">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2092,7 +2092,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2122,7 +2122,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>40</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2174,7 +2174,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2183,10 +2183,10 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>1</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>31</v>
@@ -2213,7 +2213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2227,11 +2227,11 @@
       <c r="F52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>31</v>
@@ -2252,7 +2252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -2261,37 +2261,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>6799</v>
+        <v>7227</v>
       </c>
       <c r="F53" s="9">
-        <v>7227</v>
+        <v>5624</v>
       </c>
       <c r="G53" s="9">
-        <v>5624</v>
+        <v>3422</v>
       </c>
       <c r="H53" s="9">
-        <v>3422</v>
+        <v>4594</v>
       </c>
       <c r="I53" s="9">
-        <v>4594</v>
+        <v>4193</v>
       </c>
       <c r="J53" s="9">
-        <v>4193</v>
+        <v>1489</v>
       </c>
       <c r="K53" s="9">
-        <v>1489</v>
+        <v>5106</v>
       </c>
       <c r="L53" s="9">
-        <v>5106</v>
+        <v>1048</v>
       </c>
       <c r="M53" s="9">
-        <v>1048</v>
+        <v>8418</v>
       </c>
       <c r="N53" s="9">
-        <v>8418</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>36</v>
       </c>
@@ -2302,35 +2302,35 @@
       <c r="E54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>31</v>
+      <c r="F54" s="11">
+        <v>2</v>
       </c>
       <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
         <v>2</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
       <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
         <v>2</v>
       </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-      <c r="N54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>37</v>
       </c>
@@ -2344,11 +2344,11 @@
       <c r="F55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>31</v>
@@ -2369,44 +2369,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>6800</v>
+        <v>7227</v>
       </c>
       <c r="F56" s="13">
-        <v>7227</v>
+        <v>5626</v>
       </c>
       <c r="G56" s="13">
-        <v>5626</v>
+        <v>3422</v>
       </c>
       <c r="H56" s="13">
-        <v>3422</v>
+        <v>4594</v>
       </c>
       <c r="I56" s="13">
-        <v>4594</v>
+        <v>4193</v>
       </c>
       <c r="J56" s="13">
-        <v>4193</v>
+        <v>1491</v>
       </c>
       <c r="K56" s="13">
-        <v>1491</v>
+        <v>5106</v>
       </c>
       <c r="L56" s="13">
-        <v>5106</v>
+        <v>1048</v>
       </c>
       <c r="M56" s="13">
-        <v>1048</v>
+        <v>8418</v>
       </c>
       <c r="N56" s="13">
-        <v>8418</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2421,7 +2421,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2436,7 +2436,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2451,7 +2451,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>41</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2503,7 +2503,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2512,11 +2512,11 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>2</v>
-      </c>
-      <c r="F62" s="9">
         <v>1</v>
       </c>
+      <c r="F62" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G62" s="9" t="s">
         <v>31</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2556,11 +2556,11 @@
       <c r="F63" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>31</v>
@@ -2581,7 +2581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2590,37 +2590,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>5190</v>
+        <v>4550</v>
       </c>
       <c r="F64" s="9">
-        <v>4550</v>
+        <v>5395</v>
       </c>
       <c r="G64" s="9">
-        <v>5395</v>
+        <v>4525</v>
       </c>
       <c r="H64" s="9">
-        <v>4525</v>
+        <v>3754</v>
       </c>
       <c r="I64" s="9">
-        <v>3754</v>
+        <v>5156</v>
       </c>
       <c r="J64" s="9">
-        <v>5156</v>
+        <v>5478</v>
       </c>
       <c r="K64" s="9">
-        <v>5478</v>
+        <v>4959</v>
       </c>
       <c r="L64" s="9">
-        <v>4959</v>
+        <v>3989</v>
       </c>
       <c r="M64" s="9">
-        <v>3989</v>
+        <v>3131</v>
       </c>
       <c r="N64" s="9">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
@@ -2631,8 +2631,8 @@
       <c r="E65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>31</v>
+      <c r="F65" s="11">
+        <v>2</v>
       </c>
       <c r="G65" s="11">
         <v>2</v>
@@ -2659,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -2673,11 +2673,11 @@
       <c r="F66" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>31</v>
@@ -2698,44 +2698,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>5192</v>
+        <v>4551</v>
       </c>
       <c r="F67" s="13">
-        <v>4551</v>
+        <v>5397</v>
       </c>
       <c r="G67" s="13">
-        <v>5397</v>
+        <v>4527</v>
       </c>
       <c r="H67" s="13">
-        <v>4527</v>
+        <v>3756</v>
       </c>
       <c r="I67" s="13">
-        <v>3756</v>
+        <v>5158</v>
       </c>
       <c r="J67" s="13">
-        <v>5158</v>
+        <v>5480</v>
       </c>
       <c r="K67" s="13">
-        <v>5480</v>
+        <v>4961</v>
       </c>
       <c r="L67" s="13">
-        <v>4961</v>
+        <v>3991</v>
       </c>
       <c r="M67" s="13">
-        <v>3991</v>
+        <v>3133</v>
       </c>
       <c r="N67" s="13">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2750,7 +2750,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2765,7 +2765,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2780,7 +2780,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>42</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2841,11 +2841,11 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>32156</v>
-      </c>
-      <c r="F73" s="9">
         <v>359964</v>
       </c>
+      <c r="F73" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G73" s="9" t="s">
         <v>31</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -2919,37 +2919,37 @@
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>994055</v>
+        <v>1097820</v>
       </c>
       <c r="F75" s="9">
-        <v>1097820</v>
+        <v>1576299</v>
       </c>
       <c r="G75" s="9">
-        <v>1576299</v>
+        <v>1878993</v>
       </c>
       <c r="H75" s="9">
-        <v>1878993</v>
+        <v>1970346</v>
       </c>
       <c r="I75" s="9">
-        <v>1970346</v>
+        <v>1977831</v>
       </c>
       <c r="J75" s="9">
-        <v>1977831</v>
-      </c>
-      <c r="K75" s="9">
         <v>2502761</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>31</v>
+      <c r="K75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="9">
+        <v>2649790</v>
       </c>
       <c r="M75" s="9">
-        <v>2649790</v>
+        <v>2455595</v>
       </c>
       <c r="N75" s="9">
-        <v>2455595</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2116225</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2960,35 +2960,35 @@
       <c r="E76" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>31</v>
+      <c r="F76" s="11">
+        <v>389067</v>
       </c>
       <c r="G76" s="11">
-        <v>389067</v>
+        <v>441915</v>
       </c>
       <c r="H76" s="11">
-        <v>441915</v>
+        <v>422633</v>
       </c>
       <c r="I76" s="11">
-        <v>422633</v>
+        <v>675649</v>
       </c>
       <c r="J76" s="11">
-        <v>675649</v>
-      </c>
-      <c r="K76" s="11">
         <v>599088</v>
       </c>
-      <c r="L76" s="11" t="s">
-        <v>31</v>
+      <c r="K76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="11">
+        <v>1067135</v>
       </c>
       <c r="M76" s="11">
-        <v>1067135</v>
+        <v>1051001</v>
       </c>
       <c r="N76" s="11">
-        <v>1051001</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>906645</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
@@ -3027,44 +3027,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>1026211</v>
+        <v>1457784</v>
       </c>
       <c r="F78" s="13">
-        <v>1457784</v>
+        <v>1965366</v>
       </c>
       <c r="G78" s="13">
-        <v>1965366</v>
+        <v>2320908</v>
       </c>
       <c r="H78" s="13">
-        <v>2320908</v>
+        <v>2392979</v>
       </c>
       <c r="I78" s="13">
-        <v>2392979</v>
+        <v>2653480</v>
       </c>
       <c r="J78" s="13">
-        <v>2653480</v>
+        <v>3101849</v>
       </c>
       <c r="K78" s="13">
-        <v>3101849</v>
+        <v>0</v>
       </c>
       <c r="L78" s="13">
-        <v>0</v>
+        <v>3716925</v>
       </c>
       <c r="M78" s="13">
-        <v>3716925</v>
+        <v>3506596</v>
       </c>
       <c r="N78" s="13">
-        <v>3506596</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3022870</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3079,7 +3079,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3109,7 +3109,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3161,7 +3161,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>1164058</v>
-      </c>
-      <c r="F84" s="9">
         <v>-16528</v>
       </c>
+      <c r="F84" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G84" s="9" t="s">
         <v>31</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3214,11 +3214,11 @@
       <c r="F85" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G85" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>31</v>
@@ -3239,7 +3239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
@@ -3248,37 +3248,37 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>1043028</v>
+        <v>1314578</v>
       </c>
       <c r="F86" s="9">
-        <v>1314578</v>
+        <v>1552327</v>
       </c>
       <c r="G86" s="9">
-        <v>1552327</v>
+        <v>1513773</v>
       </c>
       <c r="H86" s="9">
-        <v>1513773</v>
+        <v>1440841</v>
       </c>
       <c r="I86" s="9">
-        <v>1440841</v>
+        <v>2130481</v>
       </c>
       <c r="J86" s="9">
-        <v>2130481</v>
+        <v>5247349</v>
       </c>
       <c r="K86" s="9">
-        <v>5247349</v>
+        <v>-3126892</v>
       </c>
       <c r="L86" s="9">
-        <v>-3126892</v>
+        <v>1344031</v>
       </c>
       <c r="M86" s="9">
-        <v>1344031</v>
+        <v>1583979</v>
       </c>
       <c r="N86" s="9">
-        <v>1583979</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2349945</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>36</v>
       </c>
@@ -3289,35 +3289,35 @@
       <c r="E87" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>31</v>
+      <c r="F87" s="11">
+        <v>425518</v>
       </c>
       <c r="G87" s="11">
-        <v>425518</v>
+        <v>298955</v>
       </c>
       <c r="H87" s="11">
-        <v>298955</v>
+        <v>992239</v>
       </c>
       <c r="I87" s="11">
-        <v>992239</v>
+        <v>248464</v>
       </c>
       <c r="J87" s="11">
-        <v>248464</v>
+        <v>979127</v>
       </c>
       <c r="K87" s="11">
-        <v>979127</v>
+        <v>157045</v>
       </c>
       <c r="L87" s="11">
-        <v>157045</v>
+        <v>329538</v>
       </c>
       <c r="M87" s="11">
-        <v>329538</v>
+        <v>609751</v>
       </c>
       <c r="N87" s="11">
-        <v>609751</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>974862</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
@@ -3331,11 +3331,11 @@
       <c r="F88" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="9">
-        <v>0</v>
+      <c r="G88" s="9">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>31</v>
@@ -3356,44 +3356,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>2207086</v>
+        <v>1298050</v>
       </c>
       <c r="F89" s="13">
-        <v>1298050</v>
+        <v>1977845</v>
       </c>
       <c r="G89" s="13">
-        <v>1977845</v>
+        <v>1812728</v>
       </c>
       <c r="H89" s="13">
-        <v>1812728</v>
+        <v>2433080</v>
       </c>
       <c r="I89" s="13">
-        <v>2433080</v>
+        <v>2378945</v>
       </c>
       <c r="J89" s="13">
-        <v>2378945</v>
+        <v>6226476</v>
       </c>
       <c r="K89" s="13">
-        <v>6226476</v>
+        <v>-2969847</v>
       </c>
       <c r="L89" s="13">
-        <v>-2969847</v>
+        <v>1673569</v>
       </c>
       <c r="M89" s="13">
-        <v>1673569</v>
+        <v>2193730</v>
       </c>
       <c r="N89" s="13">
-        <v>2193730</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3324807</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3408,7 +3408,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3423,7 +3423,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3438,7 +3438,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>44</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3490,7 +3490,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3499,11 +3499,11 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>1045613</v>
-      </c>
-      <c r="F95" s="9">
         <v>-46544</v>
       </c>
+      <c r="F95" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G95" s="9" t="s">
         <v>31</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3543,11 +3543,11 @@
       <c r="F96" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>31</v>
@@ -3568,7 +3568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -3577,37 +3577,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>939263</v>
+        <v>895894</v>
       </c>
       <c r="F97" s="9">
-        <v>895894</v>
+        <v>1249633</v>
       </c>
       <c r="G97" s="9">
-        <v>1249633</v>
+        <v>1362625</v>
       </c>
       <c r="H97" s="9">
-        <v>1362625</v>
+        <v>1433356</v>
       </c>
       <c r="I97" s="9">
-        <v>1433356</v>
+        <v>1651178</v>
       </c>
       <c r="J97" s="9">
-        <v>1651178</v>
+        <v>1126440</v>
       </c>
       <c r="K97" s="9">
-        <v>1126440</v>
+        <v>846988</v>
       </c>
       <c r="L97" s="9">
-        <v>846988</v>
+        <v>1538226</v>
       </c>
       <c r="M97" s="9">
-        <v>1538226</v>
+        <v>1923349</v>
       </c>
       <c r="N97" s="9">
-        <v>1923349</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2751457</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>36</v>
       </c>
@@ -3618,35 +3618,35 @@
       <c r="E98" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>31</v>
+      <c r="F98" s="11">
+        <v>372670</v>
       </c>
       <c r="G98" s="11">
-        <v>372670</v>
+        <v>319150</v>
       </c>
       <c r="H98" s="11">
-        <v>319150</v>
+        <v>739223</v>
       </c>
       <c r="I98" s="11">
-        <v>739223</v>
+        <v>271869</v>
       </c>
       <c r="J98" s="11">
-        <v>271869</v>
+        <v>357291</v>
       </c>
       <c r="K98" s="11">
-        <v>357291</v>
+        <v>310834</v>
       </c>
       <c r="L98" s="11">
-        <v>310834</v>
+        <v>345672</v>
       </c>
       <c r="M98" s="11">
-        <v>345672</v>
+        <v>754107</v>
       </c>
       <c r="N98" s="11">
-        <v>754107</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>692993</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>37</v>
       </c>
@@ -3660,11 +3660,11 @@
       <c r="F99" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0</v>
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>31</v>
@@ -3685,44 +3685,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>1984876</v>
+        <v>849350</v>
       </c>
       <c r="F100" s="13">
-        <v>849350</v>
+        <v>1622303</v>
       </c>
       <c r="G100" s="13">
-        <v>1622303</v>
+        <v>1681775</v>
       </c>
       <c r="H100" s="13">
-        <v>1681775</v>
+        <v>2172579</v>
       </c>
       <c r="I100" s="13">
-        <v>2172579</v>
+        <v>1923047</v>
       </c>
       <c r="J100" s="13">
-        <v>1923047</v>
+        <v>1483731</v>
       </c>
       <c r="K100" s="13">
-        <v>1483731</v>
+        <v>1157822</v>
       </c>
       <c r="L100" s="13">
-        <v>1157822</v>
+        <v>1883898</v>
       </c>
       <c r="M100" s="13">
-        <v>1883898</v>
+        <v>2677456</v>
       </c>
       <c r="N100" s="13">
-        <v>2677456</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3444450</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3737,7 +3737,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3752,7 +3752,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3767,7 +3767,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>45</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3819,7 +3819,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>359964</v>
-      </c>
-      <c r="F106" s="9">
         <v>389980</v>
       </c>
+      <c r="F106" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G106" s="9" t="s">
         <v>31</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3872,11 +3872,11 @@
       <c r="F107" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G107" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" s="11">
-        <v>0</v>
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>31</v>
@@ -3897,7 +3897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>34</v>
       </c>
@@ -3906,37 +3906,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>1097820</v>
+        <v>1516504</v>
       </c>
       <c r="F108" s="9">
-        <v>1516504</v>
+        <v>1878993</v>
       </c>
       <c r="G108" s="9">
-        <v>1878993</v>
+        <v>1970346</v>
       </c>
       <c r="H108" s="9">
-        <v>1970346</v>
+        <v>1977831</v>
       </c>
       <c r="I108" s="9">
-        <v>1977831</v>
+        <v>2502761</v>
       </c>
       <c r="J108" s="9">
-        <v>2502761</v>
+        <v>6623670</v>
       </c>
       <c r="K108" s="9">
-        <v>6623670</v>
+        <v>2649790</v>
       </c>
       <c r="L108" s="9">
-        <v>2649790</v>
+        <v>2455595</v>
       </c>
       <c r="M108" s="9">
-        <v>2455595</v>
+        <v>2116225</v>
       </c>
       <c r="N108" s="9">
-        <v>2116225</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1714713</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>36</v>
       </c>
@@ -3947,35 +3947,35 @@
       <c r="E109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>31</v>
+      <c r="F109" s="11">
+        <v>441915</v>
       </c>
       <c r="G109" s="11">
-        <v>441915</v>
+        <v>422633</v>
       </c>
       <c r="H109" s="11">
-        <v>422633</v>
+        <v>675649</v>
       </c>
       <c r="I109" s="11">
-        <v>675649</v>
+        <v>599088</v>
       </c>
       <c r="J109" s="11">
-        <v>599088</v>
+        <v>1220924</v>
       </c>
       <c r="K109" s="11">
-        <v>1220924</v>
+        <v>1067135</v>
       </c>
       <c r="L109" s="11">
-        <v>1067135</v>
+        <v>1051001</v>
       </c>
       <c r="M109" s="11">
-        <v>1051001</v>
+        <v>906645</v>
       </c>
       <c r="N109" s="11">
-        <v>906645</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1188514</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
@@ -3989,11 +3989,11 @@
       <c r="F110" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G110" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0</v>
+      <c r="G110" s="9">
+        <v>0</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>31</v>
@@ -4014,44 +4014,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>1457784</v>
+        <v>1906484</v>
       </c>
       <c r="F111" s="13">
-        <v>1906484</v>
+        <v>2320908</v>
       </c>
       <c r="G111" s="13">
-        <v>2320908</v>
+        <v>2392979</v>
       </c>
       <c r="H111" s="13">
-        <v>2392979</v>
+        <v>2653480</v>
       </c>
       <c r="I111" s="13">
-        <v>2653480</v>
+        <v>3101849</v>
       </c>
       <c r="J111" s="13">
-        <v>3101849</v>
+        <v>7844594</v>
       </c>
       <c r="K111" s="13">
-        <v>7844594</v>
+        <v>3716925</v>
       </c>
       <c r="L111" s="13">
-        <v>3716925</v>
+        <v>3506596</v>
       </c>
       <c r="M111" s="13">
-        <v>3506596</v>
+        <v>3022870</v>
       </c>
       <c r="N111" s="13">
-        <v>3022870</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2903227</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4066,7 +4066,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4081,7 +4081,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4096,7 +4096,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>46</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4148,7 +4148,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>32156000000</v>
-      </c>
-      <c r="F117" s="9">
         <v>179982000000</v>
       </c>
+      <c r="F117" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G117" s="9" t="s">
         <v>31</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>34</v>
       </c>
@@ -4196,37 +4196,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>168913339</v>
+        <v>211526012</v>
       </c>
       <c r="F118" s="11">
-        <v>211526012</v>
+        <v>346439341</v>
       </c>
       <c r="G118" s="11">
-        <v>346439341</v>
+        <v>348284152</v>
       </c>
       <c r="H118" s="11">
-        <v>348284152</v>
+        <v>435435580</v>
       </c>
       <c r="I118" s="11">
-        <v>435435580</v>
+        <v>526859616</v>
       </c>
       <c r="J118" s="11">
-        <v>526859616</v>
+        <v>485407486</v>
       </c>
       <c r="K118" s="11">
-        <v>485407486</v>
+        <v>1209140197</v>
       </c>
       <c r="L118" s="11">
-        <v>1209140197</v>
+        <v>534339585</v>
       </c>
       <c r="M118" s="11">
-        <v>534339585</v>
+        <v>615591627</v>
       </c>
       <c r="N118" s="11">
-        <v>615591627</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>675894283</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>36</v>
       </c>
@@ -4237,35 +4237,35 @@
       <c r="E119" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>31</v>
+      <c r="F119" s="9">
+        <v>194533500000</v>
       </c>
       <c r="G119" s="9">
-        <v>194533500000</v>
+        <v>220957500000</v>
       </c>
       <c r="H119" s="9">
-        <v>220957500000</v>
+        <v>211316500000</v>
       </c>
       <c r="I119" s="9">
-        <v>211316500000</v>
+        <v>337824500000</v>
       </c>
       <c r="J119" s="9">
-        <v>337824500000</v>
+        <v>299544000000</v>
       </c>
       <c r="K119" s="9">
-        <v>299544000000</v>
+        <v>610462000000</v>
       </c>
       <c r="L119" s="9">
-        <v>610462000000</v>
+        <v>533567500000</v>
       </c>
       <c r="M119" s="9">
-        <v>533567500000</v>
+        <v>525500500000</v>
       </c>
       <c r="N119" s="9">
-        <v>525500500000</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>453322500000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4280,7 +4280,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4295,7 +4295,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4310,7 +4310,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>49</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4362,7 +4362,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>29</v>
       </c>
@@ -4371,11 +4371,11 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>1164058000000</v>
-      </c>
-      <c r="F125" s="9">
         <v>16528000000</v>
       </c>
+      <c r="F125" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G125" s="9" t="s">
         <v>31</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>34</v>
       </c>
@@ -4410,37 +4410,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>170876147</v>
+        <v>199723184</v>
       </c>
       <c r="F126" s="11">
-        <v>199723184</v>
+        <v>239963982</v>
       </c>
       <c r="G126" s="11">
-        <v>239963982</v>
+        <v>558175885</v>
       </c>
       <c r="H126" s="11">
-        <v>558175885</v>
+        <v>393349986</v>
       </c>
       <c r="I126" s="11">
-        <v>393349986</v>
+        <v>370196525</v>
       </c>
       <c r="J126" s="11">
-        <v>370196525</v>
+        <v>2897487024</v>
       </c>
       <c r="K126" s="11">
-        <v>2897487024</v>
+        <v>-681685633</v>
       </c>
       <c r="L126" s="11">
-        <v>-681685633</v>
+        <v>17231166667</v>
       </c>
       <c r="M126" s="11">
-        <v>17231166667</v>
+        <v>209521032</v>
       </c>
       <c r="N126" s="11">
-        <v>209521032</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>379758403</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>36</v>
       </c>
@@ -4451,35 +4451,35 @@
       <c r="E127" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G127" s="9">
+      <c r="F127" s="9">
         <v>212759000000</v>
       </c>
+      <c r="G127" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H127" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J127" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K127" s="9">
+      <c r="J127" s="9">
         <v>489563500000</v>
       </c>
+      <c r="K127" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L127" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M127" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N127" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="9">
+        <v>487431000000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4494,7 +4494,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4509,7 +4509,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4524,7 +4524,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>50</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4576,7 +4576,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4584,8 +4584,8 @@
         <v>47</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
-        <v>1045613000000</v>
+      <c r="E133" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>31</v>
@@ -4615,7 +4615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>34</v>
       </c>
@@ -4624,37 +4624,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>138147228</v>
+        <v>123964854</v>
       </c>
       <c r="F134" s="11">
-        <v>123964854</v>
+        <v>222196479</v>
       </c>
       <c r="G134" s="11">
-        <v>222196479</v>
+        <v>398195500</v>
       </c>
       <c r="H134" s="11">
-        <v>398195500</v>
+        <v>312006095</v>
       </c>
       <c r="I134" s="11">
-        <v>312006095</v>
+        <v>393793942</v>
       </c>
       <c r="J134" s="11">
-        <v>393793942</v>
+        <v>756507723</v>
       </c>
       <c r="K134" s="11">
-        <v>756507723</v>
+        <v>165880924</v>
       </c>
       <c r="L134" s="11">
-        <v>165880924</v>
+        <v>1467772901</v>
       </c>
       <c r="M134" s="11">
-        <v>1467772901</v>
+        <v>228480518</v>
       </c>
       <c r="N134" s="11">
-        <v>228480518</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>436808541</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
@@ -4665,35 +4665,35 @@
       <c r="E135" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F135" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" s="9">
+      <c r="F135" s="9">
         <v>186335000000</v>
       </c>
+      <c r="G135" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H135" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K135" s="9">
+      <c r="J135" s="9">
         <v>178645500000</v>
       </c>
+      <c r="K135" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L135" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M135" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N135" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N135" s="9">
+        <v>346496500000</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4708,7 +4708,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4723,7 +4723,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4738,7 +4738,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>51</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4790,7 +4790,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>34</v>
       </c>
@@ -4843,32 +4843,32 @@
       <c r="F142" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G142" s="11" t="s">
-        <v>31</v>
+      <c r="G142" s="11">
+        <v>435435580</v>
       </c>
       <c r="H142" s="11">
-        <v>435435580</v>
+        <v>526859616</v>
       </c>
       <c r="I142" s="11">
-        <v>526859616</v>
+        <v>485407486</v>
       </c>
       <c r="J142" s="11">
-        <v>485407486</v>
+        <v>1209140197</v>
       </c>
       <c r="K142" s="11">
-        <v>1209140197</v>
+        <v>534339585</v>
       </c>
       <c r="L142" s="11">
-        <v>534339585</v>
+        <v>615591627</v>
       </c>
       <c r="M142" s="11">
-        <v>615591627</v>
+        <v>675894283</v>
       </c>
       <c r="N142" s="11">
-        <v>675894283</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>567785762</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>36</v>
       </c>
@@ -4882,32 +4882,32 @@
       <c r="F143" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G143" s="9" t="s">
-        <v>31</v>
+      <c r="G143" s="9">
+        <v>211316500000</v>
       </c>
       <c r="H143" s="9">
-        <v>211316500000</v>
+        <v>337824500000</v>
       </c>
       <c r="I143" s="9">
-        <v>337824500000</v>
+        <v>299544000000</v>
       </c>
       <c r="J143" s="9">
-        <v>299544000000</v>
+        <v>610462000000</v>
       </c>
       <c r="K143" s="9">
-        <v>610462000000</v>
+        <v>533567500000</v>
       </c>
       <c r="L143" s="9">
-        <v>533567500000</v>
+        <v>525500500000</v>
       </c>
       <c r="M143" s="9">
-        <v>525500500000</v>
+        <v>453322500000</v>
       </c>
       <c r="N143" s="9">
-        <v>453322500000</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>594257000000</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4922,7 +4922,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4937,7 +4937,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4952,7 +4952,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>52</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5004,44 +5004,44 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
-        <v>-27010</v>
+        <v>1611</v>
       </c>
       <c r="F149" s="9">
-        <v>1611</v>
+        <v>4743</v>
       </c>
       <c r="G149" s="9">
-        <v>4743</v>
+        <v>1282</v>
       </c>
       <c r="H149" s="9">
-        <v>1282</v>
+        <v>4993</v>
       </c>
       <c r="I149" s="9">
-        <v>4993</v>
+        <v>2313</v>
       </c>
       <c r="J149" s="9">
-        <v>2313</v>
+        <v>4570</v>
       </c>
       <c r="K149" s="9">
-        <v>4570</v>
+        <v>3001</v>
       </c>
       <c r="L149" s="9">
-        <v>3001</v>
+        <v>4496</v>
       </c>
       <c r="M149" s="9">
-        <v>4496</v>
+        <v>1066</v>
       </c>
       <c r="N149" s="9">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>54</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>55</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>56</v>
       </c>
@@ -5152,155 +5152,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
-        <v>1411</v>
+        <v>8924</v>
       </c>
       <c r="F153" s="9">
-        <v>8924</v>
+        <v>11450</v>
       </c>
       <c r="G153" s="9">
-        <v>11450</v>
+        <v>3982</v>
       </c>
       <c r="H153" s="9">
-        <v>3982</v>
+        <v>11254</v>
       </c>
       <c r="I153" s="9">
-        <v>11254</v>
+        <v>10516</v>
       </c>
       <c r="J153" s="9">
-        <v>10516</v>
+        <v>8234</v>
       </c>
       <c r="K153" s="9">
-        <v>8234</v>
+        <v>1715</v>
       </c>
       <c r="L153" s="9">
-        <v>1715</v>
+        <v>9304</v>
       </c>
       <c r="M153" s="9">
-        <v>9304</v>
+        <v>7294</v>
       </c>
       <c r="N153" s="9">
-        <v>7294</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>2869</v>
+        <v>1044</v>
       </c>
       <c r="F154" s="11">
-        <v>1044</v>
+        <v>2008</v>
       </c>
       <c r="G154" s="11">
-        <v>2008</v>
+        <v>4265</v>
       </c>
       <c r="H154" s="11">
-        <v>4265</v>
+        <v>-1209</v>
       </c>
       <c r="I154" s="11">
-        <v>-1209</v>
+        <v>4617</v>
       </c>
       <c r="J154" s="11">
-        <v>4617</v>
+        <v>7217</v>
       </c>
       <c r="K154" s="11">
-        <v>7217</v>
+        <v>629</v>
       </c>
       <c r="L154" s="11">
-        <v>629</v>
+        <v>2071</v>
       </c>
       <c r="M154" s="11">
-        <v>2071</v>
+        <v>4571</v>
       </c>
       <c r="N154" s="11">
-        <v>4571</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>9176</v>
+        <v>12601</v>
       </c>
       <c r="F155" s="9">
-        <v>12601</v>
+        <v>14207</v>
       </c>
       <c r="G155" s="9">
-        <v>14207</v>
+        <v>6758</v>
       </c>
       <c r="H155" s="9">
-        <v>6758</v>
+        <v>14706</v>
       </c>
       <c r="I155" s="9">
-        <v>14706</v>
+        <v>12041</v>
       </c>
       <c r="J155" s="9">
-        <v>12041</v>
+        <v>19072</v>
       </c>
       <c r="K155" s="9">
-        <v>19072</v>
+        <v>7988</v>
       </c>
       <c r="L155" s="9">
-        <v>7988</v>
+        <v>16587</v>
       </c>
       <c r="M155" s="9">
-        <v>16587</v>
+        <v>28031</v>
       </c>
       <c r="N155" s="9">
-        <v>28031</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23751</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>56555</v>
+        <v>73027</v>
       </c>
       <c r="F156" s="11">
-        <v>73027</v>
+        <v>69235</v>
       </c>
       <c r="G156" s="11">
-        <v>69235</v>
+        <v>112478</v>
       </c>
       <c r="H156" s="11">
-        <v>112478</v>
+        <v>109700</v>
       </c>
       <c r="I156" s="11">
-        <v>109700</v>
+        <v>126697</v>
       </c>
       <c r="J156" s="11">
-        <v>126697</v>
+        <v>105920</v>
       </c>
       <c r="K156" s="11">
-        <v>105920</v>
+        <v>101523</v>
       </c>
       <c r="L156" s="11">
-        <v>101523</v>
+        <v>122718</v>
       </c>
       <c r="M156" s="11">
-        <v>122718</v>
+        <v>128475</v>
       </c>
       <c r="N156" s="11">
-        <v>128475</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>157638</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>61</v>
       </c>
@@ -5337,81 +5337,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>77138</v>
+        <v>-6752</v>
       </c>
       <c r="F158" s="11">
-        <v>-6752</v>
+        <v>13782</v>
       </c>
       <c r="G158" s="11">
-        <v>13782</v>
+        <v>63250</v>
       </c>
       <c r="H158" s="11">
-        <v>63250</v>
+        <v>55587</v>
       </c>
       <c r="I158" s="11">
-        <v>55587</v>
+        <v>66096</v>
       </c>
       <c r="J158" s="11">
-        <v>66096</v>
+        <v>47064</v>
       </c>
       <c r="K158" s="11">
-        <v>47064</v>
+        <v>47877</v>
       </c>
       <c r="L158" s="11">
-        <v>47877</v>
+        <v>34388</v>
       </c>
       <c r="M158" s="11">
-        <v>34388</v>
+        <v>68198</v>
       </c>
       <c r="N158" s="11">
-        <v>68198</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79367</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15">
-        <v>120139</v>
+        <v>90455</v>
       </c>
       <c r="F159" s="15">
-        <v>90455</v>
+        <v>115425</v>
       </c>
       <c r="G159" s="15">
-        <v>115425</v>
+        <v>192015</v>
       </c>
       <c r="H159" s="15">
-        <v>192015</v>
+        <v>195031</v>
       </c>
       <c r="I159" s="15">
-        <v>195031</v>
+        <v>222280</v>
       </c>
       <c r="J159" s="15">
-        <v>222280</v>
+        <v>192077</v>
       </c>
       <c r="K159" s="15">
-        <v>192077</v>
+        <v>162733</v>
       </c>
       <c r="L159" s="15">
-        <v>162733</v>
+        <v>189564</v>
       </c>
       <c r="M159" s="15">
-        <v>189564</v>
+        <v>237635</v>
       </c>
       <c r="N159" s="15">
-        <v>237635</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>269603</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5426,7 +5426,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5441,7 +5441,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5456,7 +5456,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>63</v>
       </c>
@@ -5473,7 +5473,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5488,7 +5488,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>64</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>66</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>68</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>70</v>
       </c>
@@ -5540,7 +5540,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>72</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>74</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>76</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>77</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>79</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>80</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>81</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>82</v>
       </c>
